--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3347.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3347.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.193912071298399</v>
+        <v>1.438681721687317</v>
       </c>
       <c r="B1">
-        <v>2.757258486122227</v>
+        <v>3.897445678710938</v>
       </c>
       <c r="C1">
-        <v>7.255351719186241</v>
+        <v>3.072275876998901</v>
       </c>
       <c r="D1">
-        <v>2.136249589303637</v>
+        <v>2.469514131546021</v>
       </c>
       <c r="E1">
-        <v>1.187074972006981</v>
+        <v>1.400667309761047</v>
       </c>
     </row>
   </sheetData>
